--- a/docs/excel/proto_index.xlsx
+++ b/docs/excel/proto_index.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="157">
   <si>
     <t>Id</t>
   </si>
@@ -95,6 +95,36 @@
   </si>
   <si>
     <t>msg.BT_RetCrushSuperBrick</t>
+  </si>
+  <si>
+    <t>msg.C2GW_JoinGame</t>
+  </si>
+  <si>
+    <t>msg.GW2C_JoinOk</t>
+  </si>
+  <si>
+    <t>msg.RoomMemberInfo</t>
+  </si>
+  <si>
+    <t>msg.GW2C_UpdateRoomInfo</t>
+  </si>
+  <si>
+    <t>msg.GW2C_StartGame</t>
+  </si>
+  <si>
+    <t>msg.GW2C_QuestionInfo</t>
+  </si>
+  <si>
+    <t>msg.C2GW_Answer</t>
+  </si>
+  <si>
+    <t>msg.GW2C_AnswerOk</t>
+  </si>
+  <si>
+    <t>msg.GW2C_AnswerInfo</t>
+  </si>
+  <si>
+    <t>msg.GW2C_GameOver</t>
   </si>
   <si>
     <t>msg.C2GW_ReqLogin</t>
@@ -836,7 +866,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B127"/>
+  <dimension ref="A1:B137"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -1860,6 +1890,86 @@
       </c>
       <c r="B127" s="1" t="s">
         <v>129</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1">
+        <v>124</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1">
+        <v>125</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1">
+        <v>126</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1">
+        <v>127</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1">
+        <v>128</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1">
+        <v>129</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1">
+        <v>130</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1">
+        <v>131</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1">
+        <v>132</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1">
+        <v>133</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -1898,59 +2008,59 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel/proto_index.xlsx
+++ b/docs/excel/proto_index.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="158">
   <si>
     <t>Id</t>
   </si>
@@ -431,6 +431,9 @@
   </si>
   <si>
     <t>msg.GW2C_SendTaskList</t>
+  </si>
+  <si>
+    <t>msg.C2GW_GetTaskReward</t>
   </si>
   <si>
     <t>msg.GW2C_SendLuckyDrawRecord</t>
@@ -866,7 +869,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B137"/>
+  <dimension ref="A1:B138"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -1970,6 +1973,14 @@
       </c>
       <c r="B137" s="1" t="s">
         <v>139</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1">
+        <v>134</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -2008,59 +2019,59 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel/proto_index.xlsx
+++ b/docs/excel/proto_index.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="161">
   <si>
     <t>Id</t>
   </si>
@@ -440,6 +440,15 @@
   </si>
   <si>
     <t>msg.C2GW_ReqTaskList</t>
+  </si>
+  <si>
+    <t>msg.SortInfo</t>
+  </si>
+  <si>
+    <t>msg.C2GW_ReqSort</t>
+  </si>
+  <si>
+    <t>msg.GW2C_RetSort</t>
   </si>
   <si>
     <t>TableName: "ProtoId" Package: "table" CSClassHeader: "[System.Serializable]"</t>
@@ -869,7 +878,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B138"/>
+  <dimension ref="A1:B141"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -1981,6 +1990,30 @@
       </c>
       <c r="B138" s="1" t="s">
         <v>140</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1">
+        <v>135</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1">
+        <v>136</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1">
+        <v>137</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -2019,59 +2052,59 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel/proto_index.xlsx
+++ b/docs/excel/proto_index.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="163">
   <si>
     <t>Id</t>
   </si>
@@ -449,6 +449,12 @@
   </si>
   <si>
     <t>msg.GW2C_RetSort</t>
+  </si>
+  <si>
+    <t>msg.C2GW_ReqGetCash</t>
+  </si>
+  <si>
+    <t>msg.C2GW_RetGetCash</t>
   </si>
   <si>
     <t>TableName: "ProtoId" Package: "table" CSClassHeader: "[System.Serializable]"</t>
@@ -878,7 +884,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B141"/>
+  <dimension ref="A1:B143"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -2014,6 +2020,22 @@
       </c>
       <c r="B141" s="1" t="s">
         <v>143</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1">
+        <v>138</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1">
+        <v>139</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -2052,59 +2074,59 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel/proto_index.xlsx
+++ b/docs/excel/proto_index.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="164">
   <si>
     <t>Id</t>
   </si>
@@ -455,6 +455,9 @@
   </si>
   <si>
     <t>msg.C2GW_RetGetCash</t>
+  </si>
+  <si>
+    <t>msg.C2GW_UpdateUserInfo</t>
   </si>
   <si>
     <t>TableName: "ProtoId" Package: "table" CSClassHeader: "[System.Serializable]"</t>
@@ -884,7 +887,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B143"/>
+  <dimension ref="A1:B144"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -2036,6 +2039,14 @@
       </c>
       <c r="B143" s="1" t="s">
         <v>145</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1">
+        <v>140</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -2074,59 +2085,59 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel/proto_index.xlsx
+++ b/docs/excel/proto_index.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="165">
   <si>
     <t>Id</t>
   </si>
@@ -458,6 +458,9 @@
   </si>
   <si>
     <t>msg.C2GW_UpdateUserInfo</t>
+  </si>
+  <si>
+    <t>msg.C2GW_ShareOk</t>
   </si>
   <si>
     <t>TableName: "ProtoId" Package: "table" CSClassHeader: "[System.Serializable]"</t>
@@ -887,7 +890,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B144"/>
+  <dimension ref="A1:B145"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -2047,6 +2050,14 @@
       </c>
       <c r="B144" s="1" t="s">
         <v>146</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1">
+        <v>141</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -2085,59 +2096,59 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel/proto_index.xlsx
+++ b/docs/excel/proto_index.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="167">
   <si>
     <t>Id</t>
   </si>
@@ -461,6 +461,12 @@
   </si>
   <si>
     <t>msg.C2GW_ShareOk</t>
+  </si>
+  <si>
+    <t>msg.CmnRewardInfo</t>
+  </si>
+  <si>
+    <t>msg.GW2C_CmnRewardInfo</t>
   </si>
   <si>
     <t>TableName: "ProtoId" Package: "table" CSClassHeader: "[System.Serializable]"</t>
@@ -890,7 +896,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B145"/>
+  <dimension ref="A1:B147"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -2058,6 +2064,22 @@
       </c>
       <c r="B145" s="1" t="s">
         <v>147</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1">
+        <v>142</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1">
+        <v>143</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -2096,59 +2118,59 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel/proto_index.xlsx
+++ b/docs/excel/proto_index.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="168">
   <si>
     <t>Id</t>
   </si>
@@ -467,6 +467,9 @@
   </si>
   <si>
     <t>msg.GW2C_CmnRewardInfo</t>
+  </si>
+  <si>
+    <t>msg.GW2C_ShareTime</t>
   </si>
   <si>
     <t>TableName: "ProtoId" Package: "table" CSClassHeader: "[System.Serializable]"</t>
@@ -896,7 +899,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B147"/>
+  <dimension ref="A1:B148"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -2080,6 +2083,14 @@
       </c>
       <c r="B147" s="1" t="s">
         <v>149</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1">
+        <v>144</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -2118,59 +2129,59 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
